--- a/Code/Results/Cases/Case_0_133/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_133/res_line/pl_mw.xlsx
@@ -424,31 +424,31 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.1422166093398687</v>
+        <v>0.0481268431561972</v>
       </c>
       <c r="D2">
-        <v>0.1205591817296892</v>
+        <v>0.1265004971426862</v>
       </c>
       <c r="E2">
-        <v>0.1481949306794732</v>
+        <v>0.1492802303412297</v>
       </c>
       <c r="F2">
-        <v>1.364569771041758</v>
+        <v>2.035767034657027</v>
       </c>
       <c r="G2">
-        <v>1.027000348766919</v>
+        <v>1.371116451407573</v>
       </c>
       <c r="H2">
-        <v>0.6411099312889661</v>
+        <v>1.260690378233804</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.2049009906746022</v>
+        <v>0.2018840846851759</v>
       </c>
       <c r="K2">
-        <v>5.21149901961013</v>
+        <v>2.193010561205085</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -471,31 +471,31 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.1225516509932163</v>
+        <v>0.04277889447789107</v>
       </c>
       <c r="D3">
-        <v>0.1062593645576442</v>
+        <v>0.122595842664694</v>
       </c>
       <c r="E3">
-        <v>0.1315348071237885</v>
+        <v>0.1457044048105054</v>
       </c>
       <c r="F3">
-        <v>1.270133350876392</v>
+        <v>2.036353246782852</v>
       </c>
       <c r="G3">
-        <v>0.9509983048283885</v>
+        <v>1.371763944753155</v>
       </c>
       <c r="H3">
-        <v>0.6180680667059875</v>
+        <v>1.269214961302609</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.182467139220357</v>
+        <v>0.1977992357084304</v>
       </c>
       <c r="K3">
-        <v>4.513768486796835</v>
+        <v>1.994407359270156</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -518,31 +518,31 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.1106638767047059</v>
+        <v>0.0395133323356589</v>
       </c>
       <c r="D4">
-        <v>0.0975399580773626</v>
+        <v>0.1202207000867048</v>
       </c>
       <c r="E4">
-        <v>0.121497645244304</v>
+        <v>0.1435785126998539</v>
       </c>
       <c r="F4">
-        <v>1.216634143163006</v>
+        <v>2.038324911203063</v>
       </c>
       <c r="G4">
-        <v>0.9084627150354407</v>
+        <v>1.373479708666764</v>
       </c>
       <c r="H4">
-        <v>0.6061482907631017</v>
+        <v>1.275346907733805</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1690958278581292</v>
+        <v>0.1954213259261763</v>
       </c>
       <c r="K4">
-        <v>4.088999302824675</v>
+        <v>1.872871147825833</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -565,31 +565,31 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.1058596859486158</v>
+        <v>0.03818704151484553</v>
       </c>
       <c r="D5">
-        <v>0.09399952453974691</v>
+        <v>0.1192584953131686</v>
       </c>
       <c r="E5">
-        <v>0.1174504631101563</v>
+        <v>0.142729703060926</v>
       </c>
       <c r="F5">
-        <v>1.195867094193872</v>
+        <v>2.039531971766138</v>
       </c>
       <c r="G5">
-        <v>0.8920780649485778</v>
+        <v>1.374508471525118</v>
       </c>
       <c r="H5">
-        <v>0.6018098059768704</v>
+        <v>1.278070766466456</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1637378731722521</v>
+        <v>0.1944849192315203</v>
       </c>
       <c r="K5">
-        <v>3.916655627197827</v>
+        <v>1.823447069488452</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -612,31 +612,31 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.1050641930578706</v>
+        <v>0.03796707796809073</v>
       </c>
       <c r="D6">
-        <v>0.09341234285933098</v>
+        <v>0.1190990674023098</v>
       </c>
       <c r="E6">
-        <v>0.1167808847254825</v>
+        <v>0.142589816011462</v>
       </c>
       <c r="F6">
-        <v>1.192478618480962</v>
+        <v>2.039756729837777</v>
       </c>
       <c r="G6">
-        <v>0.8894122371736586</v>
+        <v>1.374699146914068</v>
       </c>
       <c r="H6">
-        <v>0.6011195996208869</v>
+        <v>1.278536631945443</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1628533943328776</v>
+        <v>0.1943313954653689</v>
       </c>
       <c r="K6">
-        <v>3.888079107907288</v>
+        <v>1.815246473531488</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -659,31 +659,31 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.1105989315726532</v>
+        <v>0.03949542761668567</v>
       </c>
       <c r="D7">
-        <v>0.09749216185745269</v>
+        <v>0.1202077003427462</v>
       </c>
       <c r="E7">
-        <v>0.1214428959332068</v>
+        <v>0.1435669944791549</v>
       </c>
       <c r="F7">
-        <v>1.216350001743507</v>
+        <v>2.038339558174002</v>
       </c>
       <c r="G7">
-        <v>0.908238016818899</v>
+        <v>1.373492251009736</v>
       </c>
       <c r="H7">
-        <v>0.6060877315608479</v>
+        <v>1.275382732436483</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1690232134511049</v>
+        <v>0.1954085653474564</v>
       </c>
       <c r="K7">
-        <v>4.086672170174893</v>
+        <v>1.872204179896187</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -706,31 +706,31 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.1353931670791297</v>
+        <v>0.04627905226931261</v>
       </c>
       <c r="D8">
-        <v>0.115614431280548</v>
+        <v>0.125149577427706</v>
       </c>
       <c r="E8">
-        <v>0.1424072950279403</v>
+        <v>0.1480328142067115</v>
       </c>
       <c r="F8">
-        <v>1.331018481812421</v>
+        <v>2.035633620919626</v>
       </c>
       <c r="G8">
-        <v>0.9998814207693698</v>
+        <v>1.37106496740941</v>
       </c>
       <c r="H8">
-        <v>0.6326767118069938</v>
+        <v>1.263442875174007</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1970755735360115</v>
+        <v>0.2004485244239902</v>
       </c>
       <c r="K8">
-        <v>4.970063742931927</v>
+        <v>2.124447977172395</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -753,31 +753,31 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.1858319375972144</v>
+        <v>0.0597305038016458</v>
       </c>
       <c r="D9">
-        <v>0.1517601105587403</v>
+        <v>0.1350153293305851</v>
       </c>
       <c r="E9">
-        <v>0.1853088560140179</v>
+        <v>0.1573444153797894</v>
       </c>
       <c r="F9">
-        <v>1.596128206253184</v>
+        <v>2.043194986767801</v>
       </c>
       <c r="G9">
-        <v>1.21682412367079</v>
+        <v>1.376852066561383</v>
       </c>
       <c r="H9">
-        <v>0.7045545395335751</v>
+        <v>1.247186069153173</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.2558059134520079</v>
+        <v>0.2113716764561673</v>
       </c>
       <c r="K9">
-        <v>6.739459828895349</v>
+        <v>2.622330425073983</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -800,31 +800,31 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.2245223882272143</v>
+        <v>0.06971215144390897</v>
       </c>
       <c r="D10">
-        <v>0.1788862988549198</v>
+        <v>0.1423678687233547</v>
       </c>
       <c r="E10">
-        <v>0.2183350345652642</v>
+        <v>0.1645262289568166</v>
       </c>
       <c r="F10">
-        <v>1.822697332303292</v>
+        <v>2.056709202240356</v>
       </c>
       <c r="G10">
-        <v>1.405861531442156</v>
+        <v>1.387657998659535</v>
       </c>
       <c r="H10">
-        <v>0.7726044811467432</v>
+        <v>1.239652934691776</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.3020367925908829</v>
+        <v>0.2200412888365548</v>
       </c>
       <c r="K10">
-        <v>8.074915690333398</v>
+        <v>2.99014514886187</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -847,31 +847,31 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.2426128779453762</v>
+        <v>0.07427636467801335</v>
       </c>
       <c r="D11">
-        <v>0.1914018976897864</v>
+        <v>0.1457349384901221</v>
       </c>
       <c r="E11">
-        <v>0.2337932091489066</v>
+        <v>0.1678680589961985</v>
       </c>
       <c r="F11">
-        <v>1.934542631189672</v>
+        <v>2.064610466183808</v>
       </c>
       <c r="G11">
-        <v>1.500090319832481</v>
+        <v>1.394024192947199</v>
       </c>
       <c r="H11">
-        <v>0.8076995729969667</v>
+        <v>1.237194075507091</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.3239473188390178</v>
+        <v>0.2241276029385517</v>
       </c>
       <c r="K11">
-        <v>8.693478710320562</v>
+        <v>3.157926876301474</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -894,31 +894,31 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.2495466033558671</v>
+        <v>0.07600822352368652</v>
       </c>
       <c r="D12">
-        <v>0.1961713956929856</v>
+        <v>0.1470131266728743</v>
       </c>
       <c r="E12">
-        <v>0.2397194819213624</v>
+        <v>0.1691443161185546</v>
       </c>
       <c r="F12">
-        <v>1.978338174508707</v>
+        <v>2.067856615248459</v>
       </c>
       <c r="G12">
-        <v>1.537129670243331</v>
+        <v>1.396645655487447</v>
       </c>
       <c r="H12">
-        <v>0.8216644039461016</v>
+        <v>1.236403010551101</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.332390966134227</v>
+        <v>0.225695641785677</v>
       </c>
       <c r="K12">
-        <v>8.929620731001251</v>
+        <v>3.22152816832147</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -941,31 +941,31 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.248049377567682</v>
+        <v>0.07563507974300876</v>
       </c>
       <c r="D13">
-        <v>0.1951427759038893</v>
+        <v>0.1467377067889686</v>
       </c>
       <c r="E13">
-        <v>0.2384397486863961</v>
+        <v>0.1688689715240201</v>
       </c>
       <c r="F13">
-        <v>1.968838756427076</v>
+        <v>2.067146166064333</v>
       </c>
       <c r="G13">
-        <v>1.529089230382596</v>
+        <v>1.396071670451278</v>
       </c>
       <c r="H13">
-        <v>0.8186254145443854</v>
+        <v>1.236567138025237</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3305656066175402</v>
+        <v>0.2253570160956855</v>
       </c>
       <c r="K13">
-        <v>8.878673092669146</v>
+        <v>3.207827560848045</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -988,31 +988,31 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.2431815721219408</v>
+        <v>0.07441877516293971</v>
       </c>
       <c r="D14">
-        <v>0.1917936537106897</v>
+        <v>0.1458400329896961</v>
       </c>
       <c r="E14">
-        <v>0.2342792494647554</v>
+        <v>0.1679728412724373</v>
       </c>
       <c r="F14">
-        <v>1.938115697580344</v>
+        <v>2.064872424821843</v>
       </c>
       <c r="G14">
-        <v>1.503109301317437</v>
+        <v>1.394235626745058</v>
       </c>
       <c r="H14">
-        <v>0.8088344421498164</v>
+        <v>1.237126182356604</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.3246389199828741</v>
+        <v>0.2242561918818637</v>
       </c>
       <c r="K14">
-        <v>8.712866107920092</v>
+        <v>3.163158071661258</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1035,31 +1035,31 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.2402111498577284</v>
+        <v>0.07367421130736318</v>
       </c>
       <c r="D15">
-        <v>0.1897462954452607</v>
+        <v>0.1452905904852457</v>
       </c>
       <c r="E15">
-        <v>0.2317406010442014</v>
+        <v>0.1674253400650088</v>
       </c>
       <c r="F15">
-        <v>1.919490496261886</v>
+        <v>2.063512843635706</v>
       </c>
       <c r="G15">
-        <v>1.487378083532604</v>
+        <v>1.393138503030144</v>
       </c>
       <c r="H15">
-        <v>0.8029276594234318</v>
+        <v>1.237486877481814</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.321028387293083</v>
+        <v>0.2235845978727582</v>
       </c>
       <c r="K15">
-        <v>8.611562788146216</v>
+        <v>3.135805306680822</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1082,31 +1082,31 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.2233510488751165</v>
+        <v>0.06941435180873157</v>
       </c>
       <c r="D16">
-        <v>0.1780723114348604</v>
+        <v>0.1421482672906649</v>
       </c>
       <c r="E16">
-        <v>0.2173343845248965</v>
+        <v>0.1643093394491686</v>
       </c>
       <c r="F16">
-        <v>1.815579459201899</v>
+        <v>2.056228288850036</v>
       </c>
       <c r="G16">
-        <v>1.399883420467006</v>
+        <v>1.387271323704994</v>
       </c>
       <c r="H16">
-        <v>0.7704008118659544</v>
+        <v>1.239833178445394</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.3006242508311487</v>
+        <v>0.2197771184672206</v>
       </c>
       <c r="K16">
-        <v>8.034739696601832</v>
+        <v>2.979189467282708</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1129,31 +1129,31 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.2131420264292672</v>
+        <v>0.06680716526543051</v>
       </c>
       <c r="D17">
-        <v>0.1709589694617506</v>
+        <v>0.140226235373035</v>
       </c>
       <c r="E17">
-        <v>0.2086147080307299</v>
+        <v>0.1624169454905768</v>
       </c>
       <c r="F17">
-        <v>1.754202403050414</v>
+        <v>2.052209966421401</v>
       </c>
       <c r="G17">
-        <v>1.34843336060959</v>
+        <v>1.384045030950432</v>
       </c>
       <c r="H17">
-        <v>0.7515603255470751</v>
+        <v>1.241521092037857</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.2883458128713414</v>
+        <v>0.2174779505742066</v>
       </c>
       <c r="K17">
-        <v>7.683921426260099</v>
+        <v>2.883228552633284</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1176,31 +1176,31 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.20731533409554</v>
+        <v>0.06530978692138945</v>
       </c>
       <c r="D18">
-        <v>0.1668837827747183</v>
+        <v>0.1391228420182813</v>
       </c>
       <c r="E18">
-        <v>0.2036395906604582</v>
+        <v>0.1613355282799844</v>
       </c>
       <c r="F18">
-        <v>1.719714096533636</v>
+        <v>2.050063671457835</v>
       </c>
       <c r="G18">
-        <v>1.319604146035999</v>
+        <v>1.382325753997605</v>
       </c>
       <c r="H18">
-        <v>0.7411079799767606</v>
+        <v>1.242582996708421</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.2813650511331645</v>
+        <v>0.2161689300241818</v>
       </c>
       <c r="K18">
-        <v>7.483159660750403</v>
+        <v>2.82807777318817</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1223,31 +1223,31 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.2053499271577408</v>
+        <v>0.06480317598401086</v>
       </c>
       <c r="D19">
-        <v>0.1655066427256173</v>
+        <v>0.1387496161135005</v>
       </c>
       <c r="E19">
-        <v>0.2019617194884304</v>
+        <v>0.1609705870211684</v>
       </c>
       <c r="F19">
-        <v>1.708171674165257</v>
+        <v>2.049365241918835</v>
       </c>
       <c r="G19">
-        <v>1.309969298667568</v>
+        <v>1.3817669984156</v>
       </c>
       <c r="H19">
-        <v>0.7376327159146285</v>
+        <v>1.242958153341306</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.27901490782628</v>
+        <v>0.2157280149628065</v>
       </c>
       <c r="K19">
-        <v>7.415351337407174</v>
+        <v>2.809412131242482</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1270,31 +1270,31 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.2142240217958431</v>
+        <v>0.06708447557952013</v>
       </c>
       <c r="D20">
-        <v>0.1717144851056958</v>
+        <v>0.140430621189779</v>
       </c>
       <c r="E20">
-        <v>0.2095387016137096</v>
+        <v>0.1626176655064384</v>
       </c>
       <c r="F20">
-        <v>1.760650604999071</v>
+        <v>2.052620639245475</v>
       </c>
       <c r="G20">
-        <v>1.353830108229175</v>
+        <v>1.384374342885224</v>
       </c>
       <c r="H20">
-        <v>0.7535256182724197</v>
+        <v>1.241331980116854</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.2896443044308512</v>
+        <v>0.2177213129604638</v>
       </c>
       <c r="K20">
-        <v>7.721158946420871</v>
+        <v>2.893439266377811</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1317,31 +1317,31 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.2446089950782238</v>
+        <v>0.07477593769561963</v>
       </c>
       <c r="D21">
-        <v>0.1927765131588046</v>
+        <v>0.146103616499957</v>
       </c>
       <c r="E21">
-        <v>0.2354992313409952</v>
+        <v>0.168235763718549</v>
       </c>
       <c r="F21">
-        <v>1.947099111478295</v>
+        <v>2.065533365605688</v>
       </c>
       <c r="G21">
-        <v>1.510701916019514</v>
+        <v>1.394769181209796</v>
       </c>
       <c r="H21">
-        <v>0.811691275973061</v>
+        <v>1.236958169678985</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.3263755792781353</v>
+        <v>0.2245789692225486</v>
       </c>
       <c r="K21">
-        <v>8.761513197100783</v>
+        <v>3.176276794336843</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1364,31 +1364,31 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.2649597521799478</v>
+        <v>0.07982314908252874</v>
       </c>
       <c r="D22">
-        <v>0.2067200001170164</v>
+        <v>0.149829590642625</v>
       </c>
       <c r="E22">
-        <v>0.252894788894892</v>
+        <v>0.1719703542664988</v>
       </c>
       <c r="F22">
-        <v>2.077461616461292</v>
+        <v>2.07545465292516</v>
       </c>
       <c r="G22">
-        <v>1.621233810183043</v>
+        <v>1.402792065926093</v>
       </c>
       <c r="H22">
-        <v>0.8536860108395672</v>
+        <v>1.234916361510329</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.3512474640142074</v>
+        <v>0.2291812253254477</v>
       </c>
       <c r="K22">
-        <v>9.452730230267207</v>
+        <v>3.361512049596115</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1411,31 +1411,31 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.2540484433120866</v>
+        <v>0.07712745458525205</v>
       </c>
       <c r="D23">
-        <v>0.1992600228744692</v>
+        <v>0.1478393102069901</v>
       </c>
       <c r="E23">
-        <v>0.2435675089387601</v>
+        <v>0.1699713747586316</v>
       </c>
       <c r="F23">
-        <v>2.007040310586362</v>
+        <v>2.070023217189771</v>
       </c>
       <c r="G23">
-        <v>1.561444836441638</v>
+        <v>1.398396913823717</v>
       </c>
       <c r="H23">
-        <v>0.8308791333100487</v>
+        <v>1.235931097991113</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.3378862859339762</v>
+        <v>0.2267138481156081</v>
       </c>
       <c r="K23">
-        <v>9.082666538899502</v>
+        <v>3.26261339435149</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1458,31 +1458,31 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.2137347199126225</v>
+        <v>0.06695909883741535</v>
       </c>
       <c r="D24">
-        <v>0.1713728720862235</v>
+        <v>0.1403382133482296</v>
       </c>
       <c r="E24">
-        <v>0.2091208466860266</v>
+        <v>0.1625268996027671</v>
       </c>
       <c r="F24">
-        <v>1.757732900032607</v>
+        <v>2.052434463696073</v>
       </c>
       <c r="G24">
-        <v>1.351387914966864</v>
+        <v>1.384225038857949</v>
       </c>
       <c r="H24">
-        <v>0.7526359338965563</v>
+        <v>1.241417192657167</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.28905701406795</v>
+        <v>0.2176112489639763</v>
       </c>
       <c r="K24">
-        <v>7.70432099531763</v>
+        <v>2.888822945279458</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1505,31 +1505,31 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.1719416064950536</v>
+        <v>0.0560747625828526</v>
       </c>
       <c r="D25">
-        <v>0.1418974574752525</v>
+        <v>0.1323279258519818</v>
       </c>
       <c r="E25">
-        <v>0.1734711197440362</v>
+        <v>0.154765776909116</v>
       </c>
       <c r="F25">
-        <v>1.519400563544082</v>
+        <v>2.039760085166591</v>
       </c>
       <c r="G25">
-        <v>1.15347942801796</v>
+        <v>1.374144553698301</v>
       </c>
       <c r="H25">
-        <v>0.6826874706917181</v>
+        <v>1.250812848154112</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.2394410858841098</v>
+        <v>0.2083042811477895</v>
       </c>
       <c r="K25">
-        <v>6.255581747454528</v>
+        <v>2.487289085474686</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_133/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_133/res_line/pl_mw.xlsx
@@ -424,31 +424,31 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.0481268431561972</v>
+        <v>0.1422166093398403</v>
       </c>
       <c r="D2">
-        <v>0.1265004971426862</v>
+        <v>0.1205591817296607</v>
       </c>
       <c r="E2">
-        <v>0.1492802303412297</v>
+        <v>0.148194930679459</v>
       </c>
       <c r="F2">
-        <v>2.035767034657027</v>
+        <v>1.364569771041758</v>
       </c>
       <c r="G2">
-        <v>1.371116451407573</v>
+        <v>1.027000348766848</v>
       </c>
       <c r="H2">
-        <v>1.260690378233804</v>
+        <v>0.6411099312890656</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.2018840846851759</v>
+        <v>0.2049009906746733</v>
       </c>
       <c r="K2">
-        <v>2.193010561205085</v>
+        <v>5.211499019610187</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -471,31 +471,31 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.04277889447789107</v>
+        <v>0.1225516509930742</v>
       </c>
       <c r="D3">
-        <v>0.122595842664694</v>
+        <v>0.1062593645577579</v>
       </c>
       <c r="E3">
-        <v>0.1457044048105054</v>
+        <v>0.131534807123824</v>
       </c>
       <c r="F3">
-        <v>2.036353246782852</v>
+        <v>1.270133350876392</v>
       </c>
       <c r="G3">
-        <v>1.371763944753155</v>
+        <v>0.9509983048283601</v>
       </c>
       <c r="H3">
-        <v>1.269214961302609</v>
+        <v>0.6180680667060869</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1977992357084304</v>
+        <v>0.1824671392203427</v>
       </c>
       <c r="K3">
-        <v>1.994407359270156</v>
+        <v>4.513768486796835</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -518,31 +518,31 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.0395133323356589</v>
+        <v>0.1106638767047201</v>
       </c>
       <c r="D4">
-        <v>0.1202207000867048</v>
+        <v>0.09753995807731997</v>
       </c>
       <c r="E4">
-        <v>0.1435785126998539</v>
+        <v>0.1214976452443217</v>
       </c>
       <c r="F4">
-        <v>2.038324911203063</v>
+        <v>1.216634143162992</v>
       </c>
       <c r="G4">
-        <v>1.373479708666764</v>
+        <v>0.9084627150354976</v>
       </c>
       <c r="H4">
-        <v>1.275346907733805</v>
+        <v>0.6061482907630875</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1954213259261763</v>
+        <v>0.1690958278579728</v>
       </c>
       <c r="K4">
-        <v>1.872871147825833</v>
+        <v>4.088999302824561</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -565,31 +565,31 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.03818704151484553</v>
+        <v>0.1058596859482606</v>
       </c>
       <c r="D5">
-        <v>0.1192584953131686</v>
+        <v>0.09399952453998139</v>
       </c>
       <c r="E5">
-        <v>0.142729703060926</v>
+        <v>0.1174504631101421</v>
       </c>
       <c r="F5">
-        <v>2.039531971766138</v>
+        <v>1.195867094193872</v>
       </c>
       <c r="G5">
-        <v>1.374508471525118</v>
+        <v>0.8920780649485778</v>
       </c>
       <c r="H5">
-        <v>1.278070766466456</v>
+        <v>0.6018098059768704</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1944849192315203</v>
+        <v>0.1637378731722379</v>
       </c>
       <c r="K5">
-        <v>1.823447069488452</v>
+        <v>3.916655627197827</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -612,31 +612,31 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.03796707796809073</v>
+        <v>0.105064193057899</v>
       </c>
       <c r="D6">
-        <v>0.1190990674023098</v>
+        <v>0.09341234285925992</v>
       </c>
       <c r="E6">
-        <v>0.142589816011462</v>
+        <v>0.1167808847254825</v>
       </c>
       <c r="F6">
-        <v>2.039756729837777</v>
+        <v>1.192478618480948</v>
       </c>
       <c r="G6">
-        <v>1.374699146914068</v>
+        <v>0.8894122371736302</v>
       </c>
       <c r="H6">
-        <v>1.278536631945443</v>
+        <v>0.6011195996209864</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1943313954653689</v>
+        <v>0.1628533943328918</v>
       </c>
       <c r="K6">
-        <v>1.815246473531488</v>
+        <v>3.888079107907174</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -659,31 +659,31 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.03949542761668567</v>
+        <v>0.1105989315725253</v>
       </c>
       <c r="D7">
-        <v>0.1202077003427462</v>
+        <v>0.09749216185744558</v>
       </c>
       <c r="E7">
-        <v>0.1435669944791549</v>
+        <v>0.121442895933221</v>
       </c>
       <c r="F7">
-        <v>2.038339558174002</v>
+        <v>1.216350001743521</v>
       </c>
       <c r="G7">
-        <v>1.373492251009736</v>
+        <v>0.9082380168189133</v>
       </c>
       <c r="H7">
-        <v>1.275382732436483</v>
+        <v>0.6060877315608479</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1954085653474564</v>
+        <v>0.1690232134512257</v>
       </c>
       <c r="K7">
-        <v>1.872204179896187</v>
+        <v>4.086672170174893</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -706,31 +706,31 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.04627905226931261</v>
+        <v>0.135393167079144</v>
       </c>
       <c r="D8">
-        <v>0.125149577427706</v>
+        <v>0.1156144312804486</v>
       </c>
       <c r="E8">
-        <v>0.1480328142067115</v>
+        <v>0.1424072950279012</v>
       </c>
       <c r="F8">
-        <v>2.035633620919626</v>
+        <v>1.331018481812379</v>
       </c>
       <c r="G8">
-        <v>1.37106496740941</v>
+        <v>0.9998814207694267</v>
       </c>
       <c r="H8">
-        <v>1.263442875174007</v>
+        <v>0.6326767118071075</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.2004485244239902</v>
+        <v>0.197075573536047</v>
       </c>
       <c r="K8">
-        <v>2.124447977172395</v>
+        <v>4.970063742931757</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -753,31 +753,31 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.0597305038016458</v>
+        <v>0.1858319375973281</v>
       </c>
       <c r="D9">
-        <v>0.1350153293305851</v>
+        <v>0.1517601105586266</v>
       </c>
       <c r="E9">
-        <v>0.1573444153797894</v>
+        <v>0.185308856014025</v>
       </c>
       <c r="F9">
-        <v>2.043194986767801</v>
+        <v>1.596128206253198</v>
       </c>
       <c r="G9">
-        <v>1.376852066561383</v>
+        <v>1.216824123670762</v>
       </c>
       <c r="H9">
-        <v>1.247186069153173</v>
+        <v>0.7045545395336035</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.2113716764561673</v>
+        <v>0.2558059134520363</v>
       </c>
       <c r="K9">
-        <v>2.622330425073983</v>
+        <v>6.739459828895292</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -800,31 +800,31 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.06971215144390897</v>
+        <v>0.2245223882272285</v>
       </c>
       <c r="D10">
-        <v>0.1423678687233547</v>
+        <v>0.1788862988549056</v>
       </c>
       <c r="E10">
-        <v>0.1645262289568166</v>
+        <v>0.2183350345652499</v>
       </c>
       <c r="F10">
-        <v>2.056709202240356</v>
+        <v>1.82269733230325</v>
       </c>
       <c r="G10">
-        <v>1.387657998659535</v>
+        <v>1.405861531442213</v>
       </c>
       <c r="H10">
-        <v>1.239652934691776</v>
+        <v>0.7726044811467716</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.2200412888365548</v>
+        <v>0.3020367925909397</v>
       </c>
       <c r="K10">
-        <v>2.99014514886187</v>
+        <v>8.074915690333341</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -847,31 +847,31 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.07427636467801335</v>
+        <v>0.2426128779454899</v>
       </c>
       <c r="D11">
-        <v>0.1457349384901221</v>
+        <v>0.1914018976896585</v>
       </c>
       <c r="E11">
-        <v>0.1678680589961985</v>
+        <v>0.2337932091489208</v>
       </c>
       <c r="F11">
-        <v>2.064610466183808</v>
+        <v>1.934542631189672</v>
       </c>
       <c r="G11">
-        <v>1.394024192947199</v>
+        <v>1.500090319832367</v>
       </c>
       <c r="H11">
-        <v>1.237194075507091</v>
+        <v>0.8076995729971088</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.2241276029385517</v>
+        <v>0.3239473188389042</v>
       </c>
       <c r="K11">
-        <v>3.157926876301474</v>
+        <v>8.693478710320505</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -894,31 +894,31 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.07600822352368652</v>
+        <v>0.2495466033556966</v>
       </c>
       <c r="D12">
-        <v>0.1470131266728743</v>
+        <v>0.1961713956929998</v>
       </c>
       <c r="E12">
-        <v>0.1691443161185546</v>
+        <v>0.2397194819213411</v>
       </c>
       <c r="F12">
-        <v>2.067856615248459</v>
+        <v>1.978338174508707</v>
       </c>
       <c r="G12">
-        <v>1.396645655487447</v>
+        <v>1.537129670243388</v>
       </c>
       <c r="H12">
-        <v>1.236403010551101</v>
+        <v>0.8216644039459879</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.225695641785677</v>
+        <v>0.3323909661340565</v>
       </c>
       <c r="K12">
-        <v>3.22152816832147</v>
+        <v>8.929620731001137</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -941,31 +941,31 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.07563507974300876</v>
+        <v>0.248049377567682</v>
       </c>
       <c r="D13">
-        <v>0.1467377067889686</v>
+        <v>0.195142775904003</v>
       </c>
       <c r="E13">
-        <v>0.1688689715240201</v>
+        <v>0.2384397486863676</v>
       </c>
       <c r="F13">
-        <v>2.067146166064333</v>
+        <v>1.968838756427076</v>
       </c>
       <c r="G13">
-        <v>1.396071670451278</v>
+        <v>1.529089230382624</v>
       </c>
       <c r="H13">
-        <v>1.236567138025237</v>
+        <v>0.8186254145442717</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2253570160956855</v>
+        <v>0.3305656066174976</v>
       </c>
       <c r="K13">
-        <v>3.207827560848045</v>
+        <v>8.87867309266926</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -988,31 +988,31 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.07441877516293971</v>
+        <v>0.2431815721218271</v>
       </c>
       <c r="D14">
-        <v>0.1458400329896961</v>
+        <v>0.1917936537106897</v>
       </c>
       <c r="E14">
-        <v>0.1679728412724373</v>
+        <v>0.2342792494647554</v>
       </c>
       <c r="F14">
-        <v>2.064872424821843</v>
+        <v>1.938115697580358</v>
       </c>
       <c r="G14">
-        <v>1.394235626745058</v>
+        <v>1.503109301317437</v>
       </c>
       <c r="H14">
-        <v>1.237126182356604</v>
+        <v>0.8088344421498164</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.2242561918818637</v>
+        <v>0.3246389199828599</v>
       </c>
       <c r="K14">
-        <v>3.163158071661258</v>
+        <v>8.712866107920206</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1035,31 +1035,31 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.07367421130736318</v>
+        <v>0.2402111498575437</v>
       </c>
       <c r="D15">
-        <v>0.1452905904852457</v>
+        <v>0.1897462954452322</v>
       </c>
       <c r="E15">
-        <v>0.1674253400650088</v>
+        <v>0.2317406010441942</v>
       </c>
       <c r="F15">
-        <v>2.063512843635706</v>
+        <v>1.919490496261901</v>
       </c>
       <c r="G15">
-        <v>1.393138503030144</v>
+        <v>1.487378083532633</v>
       </c>
       <c r="H15">
-        <v>1.237486877481814</v>
+        <v>0.8029276594232897</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.2235845978727582</v>
+        <v>0.3210283872930688</v>
       </c>
       <c r="K15">
-        <v>3.135805306680822</v>
+        <v>8.611562788146102</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1082,31 +1082,31 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.06941435180873157</v>
+        <v>0.2233510488752302</v>
       </c>
       <c r="D16">
-        <v>0.1421482672906649</v>
+        <v>0.1780723114346188</v>
       </c>
       <c r="E16">
-        <v>0.1643093394491686</v>
+        <v>0.2173343845249036</v>
       </c>
       <c r="F16">
-        <v>2.056228288850036</v>
+        <v>1.815579459201913</v>
       </c>
       <c r="G16">
-        <v>1.387271323704994</v>
+        <v>1.399883420466978</v>
       </c>
       <c r="H16">
-        <v>1.239833178445394</v>
+        <v>0.7704008118659544</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.2197771184672206</v>
+        <v>0.3006242508311914</v>
       </c>
       <c r="K16">
-        <v>2.979189467282708</v>
+        <v>8.034739696601832</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1129,31 +1129,31 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.06680716526543051</v>
+        <v>0.2131420264292387</v>
       </c>
       <c r="D17">
-        <v>0.140226235373035</v>
+        <v>0.1709589694617506</v>
       </c>
       <c r="E17">
-        <v>0.1624169454905768</v>
+        <v>0.2086147080307583</v>
       </c>
       <c r="F17">
-        <v>2.052209966421401</v>
+        <v>1.754202403050414</v>
       </c>
       <c r="G17">
-        <v>1.384045030950432</v>
+        <v>1.348433360609675</v>
       </c>
       <c r="H17">
-        <v>1.241521092037857</v>
+        <v>0.7515603255470751</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.2174779505742066</v>
+        <v>0.288345812871313</v>
       </c>
       <c r="K17">
-        <v>2.883228552633284</v>
+        <v>7.683921426260042</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1176,31 +1176,31 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.06530978692138945</v>
+        <v>0.2073153340955827</v>
       </c>
       <c r="D18">
-        <v>0.1391228420182813</v>
+        <v>0.1668837827748035</v>
       </c>
       <c r="E18">
-        <v>0.1613355282799844</v>
+        <v>0.2036395906604582</v>
       </c>
       <c r="F18">
-        <v>2.050063671457835</v>
+        <v>1.71971409653365</v>
       </c>
       <c r="G18">
-        <v>1.382325753997605</v>
+        <v>1.319604146035942</v>
       </c>
       <c r="H18">
-        <v>1.242582996708421</v>
+        <v>0.7411079799767606</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.2161689300241818</v>
+        <v>0.2813650511332924</v>
       </c>
       <c r="K18">
-        <v>2.82807777318817</v>
+        <v>7.483159660750403</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1223,31 +1223,31 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.06480317598401086</v>
+        <v>0.2053499271580819</v>
       </c>
       <c r="D19">
-        <v>0.1387496161135005</v>
+        <v>0.1655066427255463</v>
       </c>
       <c r="E19">
-        <v>0.1609705870211684</v>
+        <v>0.2019617194884447</v>
       </c>
       <c r="F19">
-        <v>2.049365241918835</v>
+        <v>1.708171674165257</v>
       </c>
       <c r="G19">
-        <v>1.3817669984156</v>
+        <v>1.309969298667568</v>
       </c>
       <c r="H19">
-        <v>1.242958153341306</v>
+        <v>0.7376327159146285</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.2157280149628065</v>
+        <v>0.2790149078263937</v>
       </c>
       <c r="K19">
-        <v>2.809412131242482</v>
+        <v>7.415351337407174</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1270,31 +1270,31 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.06708447557952013</v>
+        <v>0.2142240217957152</v>
       </c>
       <c r="D20">
-        <v>0.140430621189779</v>
+        <v>0.1717144851056815</v>
       </c>
       <c r="E20">
-        <v>0.1626176655064384</v>
+        <v>0.2095387016137522</v>
       </c>
       <c r="F20">
-        <v>2.052620639245475</v>
+        <v>1.760650604999086</v>
       </c>
       <c r="G20">
-        <v>1.384374342885224</v>
+        <v>1.353830108229232</v>
       </c>
       <c r="H20">
-        <v>1.241331980116854</v>
+        <v>0.7535256182724197</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.2177213129604638</v>
+        <v>0.2896443044308938</v>
       </c>
       <c r="K20">
-        <v>2.893439266377811</v>
+        <v>7.721158946420758</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1317,31 +1317,31 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.07477593769561963</v>
+        <v>0.2446089950781385</v>
       </c>
       <c r="D21">
-        <v>0.146103616499957</v>
+        <v>0.1927765131588473</v>
       </c>
       <c r="E21">
-        <v>0.168235763718549</v>
+        <v>0.2354992313409952</v>
       </c>
       <c r="F21">
-        <v>2.065533365605688</v>
+        <v>1.947099111478266</v>
       </c>
       <c r="G21">
-        <v>1.394769181209796</v>
+        <v>1.51070191601957</v>
       </c>
       <c r="H21">
-        <v>1.236958169678985</v>
+        <v>0.811691275973061</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.2245789692225486</v>
+        <v>0.3263755792782632</v>
       </c>
       <c r="K21">
-        <v>3.176276794336843</v>
+        <v>8.76151319710084</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1364,31 +1364,31 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.07982314908252874</v>
+        <v>0.2649597521800331</v>
       </c>
       <c r="D22">
-        <v>0.149829590642625</v>
+        <v>0.2067200001172154</v>
       </c>
       <c r="E22">
-        <v>0.1719703542664988</v>
+        <v>0.2528947888948991</v>
       </c>
       <c r="F22">
-        <v>2.07545465292516</v>
+        <v>2.077461616461278</v>
       </c>
       <c r="G22">
-        <v>1.402792065926093</v>
+        <v>1.621233810183099</v>
       </c>
       <c r="H22">
-        <v>1.234916361510329</v>
+        <v>0.8536860108395388</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.2291812253254477</v>
+        <v>0.3512474640142358</v>
       </c>
       <c r="K22">
-        <v>3.361512049596115</v>
+        <v>9.452730230267434</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1411,31 +1411,31 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.07712745458525205</v>
+        <v>0.2540484433117882</v>
       </c>
       <c r="D23">
-        <v>0.1478393102069901</v>
+        <v>0.1992600228745403</v>
       </c>
       <c r="E23">
-        <v>0.1699713747586316</v>
+        <v>0.2435675089387459</v>
       </c>
       <c r="F23">
-        <v>2.070023217189771</v>
+        <v>2.007040310586376</v>
       </c>
       <c r="G23">
-        <v>1.398396913823717</v>
+        <v>1.561444836441638</v>
       </c>
       <c r="H23">
-        <v>1.235931097991113</v>
+        <v>0.8308791333100487</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.2267138481156081</v>
+        <v>0.3378862859338483</v>
       </c>
       <c r="K23">
-        <v>3.26261339435149</v>
+        <v>9.082666538899559</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1458,31 +1458,31 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.06695909883741535</v>
+        <v>0.2137347199124662</v>
       </c>
       <c r="D24">
-        <v>0.1403382133482296</v>
+        <v>0.1713728720861241</v>
       </c>
       <c r="E24">
-        <v>0.1625268996027671</v>
+        <v>0.2091208466860834</v>
       </c>
       <c r="F24">
-        <v>2.052434463696073</v>
+        <v>1.757732900032579</v>
       </c>
       <c r="G24">
-        <v>1.384225038857949</v>
+        <v>1.351387914966892</v>
       </c>
       <c r="H24">
-        <v>1.241417192657167</v>
+        <v>0.7526359338965563</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.2176112489639763</v>
+        <v>0.2890570140678506</v>
       </c>
       <c r="K24">
-        <v>2.888822945279458</v>
+        <v>7.704320995317573</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1505,31 +1505,31 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.0560747625828526</v>
+        <v>0.1719416064953663</v>
       </c>
       <c r="D25">
-        <v>0.1323279258519818</v>
+        <v>0.1418974574753236</v>
       </c>
       <c r="E25">
-        <v>0.154765776909116</v>
+        <v>0.1734711197440291</v>
       </c>
       <c r="F25">
-        <v>2.039760085166591</v>
+        <v>1.519400563544067</v>
       </c>
       <c r="G25">
-        <v>1.374144553698301</v>
+        <v>1.153479428017988</v>
       </c>
       <c r="H25">
-        <v>1.250812848154112</v>
+        <v>0.6826874706917181</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.2083042811477895</v>
+        <v>0.2394410858840956</v>
       </c>
       <c r="K25">
-        <v>2.487289085474686</v>
+        <v>6.255581747454471</v>
       </c>
       <c r="L25">
         <v>0</v>
